--- a/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
@@ -226,7 +226,7 @@
     <t xml:space="preserve">99</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>

--- a/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6A2486-3606-4705-B8C6-D3224DA93262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C633520-E34A-4011-A4B8-82818246D073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C633520-E34A-4011-A4B8-82818246D073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2533BA43-F443-4521-97A0-89A190122FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2533BA43-F443-4521-97A0-89A190122FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833AA2D0-2018-4039-8A6A-BD667E52DCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>instAmount</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
   <dimension ref="A1:BT1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -938,7 +941,7 @@
         <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>69</v>

--- a/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833AA2D0-2018-4039-8A6A-BD667E52DCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31863474-6E30-40DF-BD9A-B52C1CCF0BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -279,10 +279,10 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -935,13 +935,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>69</v>

--- a/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31863474-6E30-40DF-BD9A-B52C1CCF0BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0E1B79-F054-4C1F-B6F7-1D0E2C2C7A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -655,73 +655,73 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.21875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" style="1" customWidth="1"/>
     <col min="25" max="25" width="19" style="1" customWidth="1"/>
-    <col min="26" max="26" width="14.109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" style="1" customWidth="1"/>
     <col min="27" max="27" width="21" style="1" customWidth="1"/>
-    <col min="28" max="29" width="20.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="22.44140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.33203125" style="1" customWidth="1"/>
-    <col min="32" max="35" width="6.77734375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="4.77734375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="8.5546875" style="1" customWidth="1"/>
-    <col min="38" max="38" width="6.5546875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="7.5546875" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.21875" style="1" customWidth="1"/>
-    <col min="41" max="41" width="13.109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="16.33203125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.109375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="18.6640625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="21.5546875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13.21875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="18.33203125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="20.77734375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="21.77734375" style="1" customWidth="1"/>
-    <col min="50" max="50" width="23.33203125" style="1" customWidth="1"/>
+    <col min="28" max="29" width="20.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="22.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.28515625" style="1" customWidth="1"/>
+    <col min="32" max="35" width="6.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="4.7109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="8.5703125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="6.5703125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5703125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="13.140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="16.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.140625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="18.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="21.5703125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="13.28515625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="18.28515625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="20.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="21.7109375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="23.28515625" style="1" customWidth="1"/>
     <col min="51" max="51" width="14" style="1" customWidth="1"/>
-    <col min="52" max="52" width="22.33203125" style="1" customWidth="1"/>
-    <col min="53" max="53" width="23.88671875" style="1" customWidth="1"/>
-    <col min="54" max="54" width="26.6640625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="22.28515625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="23.85546875" style="1" customWidth="1"/>
+    <col min="54" max="54" width="26.7109375" style="1" customWidth="1"/>
     <col min="55" max="55" width="9" style="1" customWidth="1"/>
-    <col min="56" max="56" width="9.77734375" style="1" customWidth="1"/>
-    <col min="57" max="57" width="6.77734375" style="1" customWidth="1"/>
-    <col min="58" max="58" width="8.21875" style="1" customWidth="1"/>
+    <col min="56" max="56" width="9.7109375" style="1" customWidth="1"/>
+    <col min="57" max="57" width="6.7109375" style="1" customWidth="1"/>
+    <col min="58" max="58" width="8.28515625" style="1" customWidth="1"/>
     <col min="59" max="59" width="9" style="1" customWidth="1"/>
-    <col min="60" max="60" width="12.77734375" style="1" customWidth="1"/>
-    <col min="61" max="61" width="7.88671875" style="1" customWidth="1"/>
-    <col min="62" max="62" width="7.44140625" style="1" customWidth="1"/>
-    <col min="63" max="63" width="11.21875" style="1" customWidth="1"/>
-    <col min="64" max="64" width="14.77734375" style="1" customWidth="1"/>
-    <col min="65" max="65" width="4.77734375" style="1" customWidth="1"/>
-    <col min="66" max="66" width="8.33203125" style="1" customWidth="1"/>
-    <col min="67" max="67" width="12.88671875" style="1" customWidth="1"/>
-    <col min="68" max="68" width="10.77734375" style="1" customWidth="1"/>
-    <col min="73" max="16384" width="14.44140625" style="1"/>
+    <col min="60" max="60" width="12.7109375" style="1" customWidth="1"/>
+    <col min="61" max="61" width="7.85546875" style="1" customWidth="1"/>
+    <col min="62" max="62" width="7.42578125" style="1" customWidth="1"/>
+    <col min="63" max="63" width="11.28515625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="14.7109375" style="1" customWidth="1"/>
+    <col min="65" max="65" width="4.7109375" style="1" customWidth="1"/>
+    <col min="66" max="66" width="8.28515625" style="1" customWidth="1"/>
+    <col min="67" max="67" width="12.85546875" style="1" customWidth="1"/>
+    <col min="68" max="68" width="10.7109375" style="1" customWidth="1"/>
+    <col min="73" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68">

--- a/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0E1B79-F054-4C1F-B6F7-1D0E2C2C7A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB933B-ACC8-4FB7-9C62-D0B0450D97C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB933B-ACC8-4FB7-9C62-D0B0450D97C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B0078B-289B-449D-BEA2-B984D4109916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -352,9 +352,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -392,7 +392,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -498,7 +498,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8C52ED-7396-4CEB-957C-FB3F6AF6BFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF6ECF4-5810-48C6-98C7-7F5689F60988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>instAmount</t>
   </si>
@@ -282,14 +282,23 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>ตำบลหนองใหญ่</t>
+  </si>
+  <si>
+    <t>อำเภอหนองใหญ่</t>
+  </si>
+  <si>
+    <t>จังหวัดนนทบุรี</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -307,6 +316,13 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="SUKHUMVITSET-TEXT"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -330,10 +346,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,9 +369,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -392,7 +409,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -498,7 +515,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,7 +669,7 @@
   <dimension ref="A1:BT1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -935,7 +952,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>67</v>
@@ -956,7 +973,7 @@
         <v>72</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>73</v>
@@ -1005,6 +1022,15 @@
       </c>
       <c r="BC2" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>83</v>

--- a/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF6ECF4-5810-48C6-98C7-7F5689F60988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88605409-4C60-4C99-9601-B4EE356D5812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>จังหวัดนนทบุรี</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 11.2/Auto_GeStamp_TSCD_TC112_C3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88605409-4C60-4C99-9601-B4EE356D5812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A156C4-F793-429B-B476-2111D07F39AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>จังหวัดนนทบุรี</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
